--- a/biology/Botanique/Pellia/Pellia.xlsx
+++ b/biology/Botanique/Pellia/Pellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pellia est un genre d'hépatiques à thalle de la famille des Pelliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pellia est le nom donné par le botaniste italien Raddi en hommage à son ami Leopoldo Pelli-Fabbroni (1783-1822), avocat à Florence[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pellia est le nom donné par le botaniste italien Raddi en hommage à son ami Leopoldo Pelli-Fabbroni (1783-1822), avocat à Florence.
 </t>
         </is>
       </c>
@@ -542,19 +556,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 juin 2013) :
 Pellia endiviifolia
 Pellia epiphylla
 Pellia neesiana
-Selon ITIS      (19 juin 2013)[3] :
+Selon ITIS      (19 juin 2013) :
 Pellia appalachiana R.M. Schust.
 Pellia endiviifolia (Dicks.) Dumort.
 Pellia epiphylla (L.) Corda.
 Pellia megaspora R.M. Schust.
 Pellia neesiana (Gottsche) Limpr.
-Selon NCBI  (19 juin 2013)[4] :
+Selon NCBI  (19 juin 2013) :
 Pellia appalachiana
 Pellia borealis
 Pellia endiviifolia
@@ -564,7 +580,7 @@
 Pellia epiphylla (species N)
 Pellia epiphylla (species S)
 Pellia neesiana
-Selon Tropicos                                           (19 juin 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Pellia alpicola R.M. Schust. ex L. Söderstr., Hagborg &amp; von Konrat
 Pellia appalachiana R.M. Schust. ex L. Söderstr., Hagborg &amp; von Konrat
 Pellia borealis Lorb.
